--- a/Shoes_Database/data/images.xlsx
+++ b/Shoes_Database/data/images.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.SP24\PRJ301\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.SP24\PRJ301\Project\ShoesShop\Shoes_Database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12105EDC-6D52-4D76-A9B5-B331FC08869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA310284-0A3D-416B-87B0-1F02E87CE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DDBA407-BF9B-42A9-A293-30A89950A886}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>href</t>
   </si>
@@ -450,6 +448,387 @@
   </si>
   <si>
     <t>32 (4).png</t>
+  </si>
+  <si>
+    <t>35 (1).jpg</t>
+  </si>
+  <si>
+    <t>36 (1).jpg</t>
+  </si>
+  <si>
+    <t>37 (1).jpg</t>
+  </si>
+  <si>
+    <t>38 (1).jpg</t>
+  </si>
+  <si>
+    <t>35 (2).jpg</t>
+  </si>
+  <si>
+    <t>35 (3).jpg</t>
+  </si>
+  <si>
+    <t>35 (4).jpg</t>
+  </si>
+  <si>
+    <t>36 (2).jpg</t>
+  </si>
+  <si>
+    <t>36 (3).jpg</t>
+  </si>
+  <si>
+    <t>36 (4).jpg</t>
+  </si>
+  <si>
+    <t>37 (2).jpg</t>
+  </si>
+  <si>
+    <t>37 (3).jpg</t>
+  </si>
+  <si>
+    <t>37 (4).jpg</t>
+  </si>
+  <si>
+    <t>38 (2).jpg</t>
+  </si>
+  <si>
+    <t>38 (3).jpg</t>
+  </si>
+  <si>
+    <t>38 (4).jpg</t>
+  </si>
+  <si>
+    <t>39 (1).jpg</t>
+  </si>
+  <si>
+    <t>40 (1).jpg</t>
+  </si>
+  <si>
+    <t>41 (1).jpg</t>
+  </si>
+  <si>
+    <t>42 (1).jpg</t>
+  </si>
+  <si>
+    <t>43 (1).jpg</t>
+  </si>
+  <si>
+    <t>44 (1).jpg</t>
+  </si>
+  <si>
+    <t>45 (1).jpg</t>
+  </si>
+  <si>
+    <t>46 (1).jpg</t>
+  </si>
+  <si>
+    <t>47 (1).jpg</t>
+  </si>
+  <si>
+    <t>48 (1).jpg</t>
+  </si>
+  <si>
+    <t>49 (1).jpg</t>
+  </si>
+  <si>
+    <t>50 (1).jpg</t>
+  </si>
+  <si>
+    <t>51 (1).jpg</t>
+  </si>
+  <si>
+    <t>52 (1).jpg</t>
+  </si>
+  <si>
+    <t>53 (1).jpg</t>
+  </si>
+  <si>
+    <t>54 (1).jpg</t>
+  </si>
+  <si>
+    <t>55 (1).jpg</t>
+  </si>
+  <si>
+    <t>56 (1).jpg</t>
+  </si>
+  <si>
+    <t>57 (1).jpg</t>
+  </si>
+  <si>
+    <t>58 (1).jpg</t>
+  </si>
+  <si>
+    <t>59 (1).jpg</t>
+  </si>
+  <si>
+    <t>60 (1).jpg</t>
+  </si>
+  <si>
+    <t>61 (1).jpg</t>
+  </si>
+  <si>
+    <t>62 (1).jpg</t>
+  </si>
+  <si>
+    <t>63 (1).jpg</t>
+  </si>
+  <si>
+    <t>64 (1).jpg</t>
+  </si>
+  <si>
+    <t>65 (1).jpg</t>
+  </si>
+  <si>
+    <t>66 (1).jpg</t>
+  </si>
+  <si>
+    <t>39 (2).jpg</t>
+  </si>
+  <si>
+    <t>40 (2).jpg</t>
+  </si>
+  <si>
+    <t>41 (2).jpg</t>
+  </si>
+  <si>
+    <t>43 (2).jpg</t>
+  </si>
+  <si>
+    <t>44 (2).jpg</t>
+  </si>
+  <si>
+    <t>42 (2).jpg</t>
+  </si>
+  <si>
+    <t>45 (2).jpg</t>
+  </si>
+  <si>
+    <t>46 (2).jpg</t>
+  </si>
+  <si>
+    <t>47 (2).jpg</t>
+  </si>
+  <si>
+    <t>48 (2).jpg</t>
+  </si>
+  <si>
+    <t>49 (2).jpg</t>
+  </si>
+  <si>
+    <t>50 (2).jpg</t>
+  </si>
+  <si>
+    <t>51 (2).jpg</t>
+  </si>
+  <si>
+    <t>52 (2).jpg</t>
+  </si>
+  <si>
+    <t>53 (2).jpg</t>
+  </si>
+  <si>
+    <t>54 (2).jpg</t>
+  </si>
+  <si>
+    <t>55 (2).jpg</t>
+  </si>
+  <si>
+    <t>56 (2).jpg</t>
+  </si>
+  <si>
+    <t>57 (2).jpg</t>
+  </si>
+  <si>
+    <t>58 (2).jpg</t>
+  </si>
+  <si>
+    <t>59 (2).jpg</t>
+  </si>
+  <si>
+    <t>60 (2).jpg</t>
+  </si>
+  <si>
+    <t>61 (2).jpg</t>
+  </si>
+  <si>
+    <t>62 (2).jpg</t>
+  </si>
+  <si>
+    <t>63 (2).jpg</t>
+  </si>
+  <si>
+    <t>64 (2).jpg</t>
+  </si>
+  <si>
+    <t>65 (2).jpg</t>
+  </si>
+  <si>
+    <t>66 (2).jpg</t>
+  </si>
+  <si>
+    <t>39 (3).jpg</t>
+  </si>
+  <si>
+    <t>40 (4).jpg</t>
+  </si>
+  <si>
+    <t>41 (4).jpg</t>
+  </si>
+  <si>
+    <t>42 (4).jpg</t>
+  </si>
+  <si>
+    <t>43 (4).jpg</t>
+  </si>
+  <si>
+    <t>40 (3).jpg</t>
+  </si>
+  <si>
+    <t>41 (3).jpg</t>
+  </si>
+  <si>
+    <t>42 (3).jpg</t>
+  </si>
+  <si>
+    <t>43 (3).jpg</t>
+  </si>
+  <si>
+    <t>44 (3).jpg</t>
+  </si>
+  <si>
+    <t>45 (3).jpg</t>
+  </si>
+  <si>
+    <t>46 (3).jpg</t>
+  </si>
+  <si>
+    <t>47 (3).jpg</t>
+  </si>
+  <si>
+    <t>48 (3).jpg</t>
+  </si>
+  <si>
+    <t>49 (3).jpg</t>
+  </si>
+  <si>
+    <t>50 (3).jpg</t>
+  </si>
+  <si>
+    <t>51 (3).jpg</t>
+  </si>
+  <si>
+    <t>52 (3).jpg</t>
+  </si>
+  <si>
+    <t>53 (3).jpg</t>
+  </si>
+  <si>
+    <t>54 (3).jpg</t>
+  </si>
+  <si>
+    <t>55 (3).jpg</t>
+  </si>
+  <si>
+    <t>56 (3).jpg</t>
+  </si>
+  <si>
+    <t>57 (3).jpg</t>
+  </si>
+  <si>
+    <t>58 (3).jpg</t>
+  </si>
+  <si>
+    <t>59 (3).jpg</t>
+  </si>
+  <si>
+    <t>60 (3).jpg</t>
+  </si>
+  <si>
+    <t>61 (3).jpg</t>
+  </si>
+  <si>
+    <t>62 (3).jpg</t>
+  </si>
+  <si>
+    <t>63 (3).jpg</t>
+  </si>
+  <si>
+    <t>64 (3).jpg</t>
+  </si>
+  <si>
+    <t>65 (3).jpg</t>
+  </si>
+  <si>
+    <t>66 (3).jpg</t>
+  </si>
+  <si>
+    <t>39 (4).jpg</t>
+  </si>
+  <si>
+    <t>44 (4).jpg</t>
+  </si>
+  <si>
+    <t>45 (4).jpg</t>
+  </si>
+  <si>
+    <t>46 (4).jpg</t>
+  </si>
+  <si>
+    <t>47 (4).jpg</t>
+  </si>
+  <si>
+    <t>48 (4).jpg</t>
+  </si>
+  <si>
+    <t>49 (4).jpg</t>
+  </si>
+  <si>
+    <t>50 (4).jpg</t>
+  </si>
+  <si>
+    <t>51 (4).jpg</t>
+  </si>
+  <si>
+    <t>52 (4).jpg</t>
+  </si>
+  <si>
+    <t>53 (4).jpg</t>
+  </si>
+  <si>
+    <t>54 (4).jpg</t>
+  </si>
+  <si>
+    <t>55 (4).jpg</t>
+  </si>
+  <si>
+    <t>56 (4).jpg</t>
+  </si>
+  <si>
+    <t>57 (4).jpg</t>
+  </si>
+  <si>
+    <t>58 (4).jpg</t>
+  </si>
+  <si>
+    <t>59 (4).jpg</t>
+  </si>
+  <si>
+    <t>60 (4).jpg</t>
+  </si>
+  <si>
+    <t>61 (4).jpg</t>
+  </si>
+  <si>
+    <t>62 (4).jpg</t>
+  </si>
+  <si>
+    <t>63 (4).jpg</t>
+  </si>
+  <si>
+    <t>64 (4).jpg</t>
+  </si>
+  <si>
+    <t>65 (4).jpg</t>
   </si>
 </sst>
 </file>
@@ -807,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB396773-6D20-41B9-BBE4-10D73036E5F9}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:XFD265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,6 +2294,1022 @@
         <v>34</v>
       </c>
     </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>211</v>
+      </c>
+      <c r="B239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>212</v>
+      </c>
+      <c r="B240">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>213</v>
+      </c>
+      <c r="B241">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>214</v>
+      </c>
+      <c r="B242">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
